--- a/Services.xlsx
+++ b/Services.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{938970B1-BB11-4B25-97A5-1E5734AA3B8E}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ED75B30-596B-479E-93F9-A9179A71710B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>slug</t>
   </si>
@@ -47,16 +47,10 @@
     <t>price</t>
   </si>
   <si>
-    <t>sale_price</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>bullet</t>
   </si>
   <si>
     <t>hvac-tuneup</t>
@@ -121,12 +115,6 @@
     <t>Skilled technician diagnoses issue &amp; explains options;Up-front pricing by repair, no hidden fees;Diagnostic fee due at scheduling; often credited if repair proceeds;Limited 1–5 year warranty depending on repair type</t>
   </si>
   <si>
-    <t>Contact us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment </t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -134,6 +122,21 @@
   </si>
   <si>
     <t>Thermostat check &amp; calibration;Tighten electrical connections; verify motor volts/amps;Lubricate movingClean/inspect coils; clear condensate drain parts where applicable;Check refrigerant level; inspect for leaks;Replace/inspect air filter; verify airflow;Safety checks (gas pressure, heat exchanger, CO)</t>
+  </si>
+  <si>
+    <t>contact_us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment </t>
+  </si>
+  <si>
+    <t>bullets</t>
+  </si>
+  <si>
+    <t>sales_price</t>
+  </si>
+  <si>
+    <t>fiber-suv</t>
   </si>
 </sst>
 </file>
@@ -198,6 +201,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,30 +549,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -574,27 +581,27 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="292.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -603,27 +610,27 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>999</v>
@@ -632,27 +639,27 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -661,23 +668,49 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1200</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ED75B30-596B-479E-93F9-A9179A71710B}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D0869B9-33C9-42C9-B412-5F1850DFC434}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>slug</t>
   </si>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>fiber-suv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGBW light engine with app + remote control (solid colors &amp; effects).;
+Twinkle / meteor modes and optional music-sync animations.;
+Hundreds of fiber strands installed for dense, even star coverage.;
+Hidden wiring and fused power with OEM-style protection.;
+Install typically completed in 2 days for sedans (vehicle-dependent).;
+Warranty on workmanship. </t>
   </si>
 </sst>
 </file>
@@ -527,7 +535,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D0869B9-33C9-42C9-B412-5F1850DFC434}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE39137-16C3-4FD5-9E9B-E246B9AC060C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,16 +124,7 @@
     <t>Thermostat check &amp; calibration;Tighten electrical connections; verify motor volts/amps;Lubricate movingClean/inspect coils; clear condensate drain parts where applicable;Check refrigerant level; inspect for leaks;Replace/inspect air filter; verify airflow;Safety checks (gas pressure, heat exchanger, CO)</t>
   </si>
   <si>
-    <t>contact_us</t>
-  </si>
-  <si>
     <t xml:space="preserve">payment </t>
-  </si>
-  <si>
-    <t>bullets</t>
-  </si>
-  <si>
-    <t>sales_price</t>
   </si>
   <si>
     <t>fiber-suv</t>
@@ -145,6 +136,15 @@
 Hidden wiring and fused power with OEM-style protection.;
 Install typically completed in 2 days for sedans (vehicle-dependent).;
 Warranty on workmanship. </t>
+  </si>
+  <si>
+    <t>sales price</t>
+  </si>
+  <si>
+    <t>bullet points</t>
+  </si>
+  <si>
+    <t>contact us</t>
   </si>
 </sst>
 </file>
@@ -209,10 +209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,13 +562,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -693,7 +689,7 @@
     </row>
     <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -711,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE39137-16C3-4FD5-9E9B-E246B9AC060C}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{956FF5BE-9779-4C2C-AD2D-167DE6482A3E}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>HVAC_IMG_2.jpeg</t>
   </si>
   <si>
-    <t>fiber-optic.MOV</t>
-  </si>
-  <si>
     <t>Seasonal maintenance to keep your system efficient, safe, and reliable</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>contact us</t>
+  </si>
+  <si>
+    <t>fiber-optic.sedan.mp4</t>
   </si>
 </sst>
 </file>
@@ -209,6 +209,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -562,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -588,16 +592,16 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="292.5" x14ac:dyDescent="0.25">
@@ -617,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -643,27 +647,27 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -672,24 +676,24 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -701,19 +705,19 @@
         <v>1000</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{956FF5BE-9779-4C2C-AD2D-167DE6482A3E}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{641BFB47-21AA-4E7F-BAFE-CC47474B56CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
+    <workbookView xWindow="2385" yWindow="2775" windowWidth="18000" windowHeight="9270" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <t>contact us</t>
   </si>
   <si>
-    <t>fiber-optic.sedan.mp4</t>
+    <t>image_1353.jpg</t>
   </si>
 </sst>
 </file>
@@ -209,10 +209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" activeCellId="1" sqref="E4 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{641BFB47-21AA-4E7F-BAFE-CC47474B56CC}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05D680F-B610-4B4D-BFB5-EC321A1A4D0E}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2775" windowWidth="18000" windowHeight="9270" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
+    <workbookView xWindow="3255" yWindow="2025" windowWidth="18000" windowHeight="9270" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <t>contact us</t>
   </si>
   <si>
-    <t>image_1353.jpg</t>
+    <t>IMG_1353.jpg</t>
   </si>
 </sst>
 </file>
@@ -209,6 +209,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" activeCellId="1" sqref="E4 F4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05D680F-B610-4B4D-BFB5-EC321A1A4D0E}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34C88B37-F7F9-4FC2-938E-64BA943CB988}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2025" windowWidth="18000" windowHeight="9270" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>slug</t>
   </si>
@@ -112,16 +112,7 @@
     <t>Skilled technician diagnoses issue &amp; explains options;Up-front pricing by repair, no hidden fees;Diagnostic fee due at scheduling; often credited if repair proceeds;Limited 1–5 year warranty depending on repair type</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Thermostat check &amp; calibration;Tighten electrical connections; verify motor volts/amps;Lubricate movingClean/inspect coils; clear condensate drain parts where applicable;Check refrigerant level; inspect for leaks;Replace/inspect air filter; verify airflow;Safety checks (gas pressure, heat exchanger, CO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment </t>
   </si>
   <si>
     <t>fiber-suv</t>
@@ -141,10 +132,16 @@
     <t>bullet points</t>
   </si>
   <si>
-    <t>contact us</t>
-  </si>
-  <si>
     <t>IMG_1353.jpg</t>
+  </si>
+  <si>
+    <t>actionType</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>contact</t>
   </si>
 </sst>
 </file>
@@ -532,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +543,7 @@
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -566,16 +563,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -595,16 +589,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="292.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="292.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -627,13 +618,10 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -641,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="C4">
+        <v>800</v>
+      </c>
+      <c r="D4">
         <v>999</v>
       </c>
-      <c r="D4">
-        <v>800</v>
-      </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -656,13 +644,10 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -685,42 +670,36 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
         <v>1200</v>
       </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>
     </row>
   </sheetData>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34C88B37-F7F9-4FC2-938E-64BA943CB988}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E525F53-790D-414C-8392-3BDDF1669D12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>slug</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>actionType</t>
-  </si>
-  <si>
-    <t>both</t>
   </si>
   <si>
     <t>contact</t>
@@ -532,7 +529,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +641,7 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="236.25" x14ac:dyDescent="0.25">
@@ -670,7 +667,7 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -696,7 +693,7 @@
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E525F53-790D-414C-8392-3BDDF1669D12}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D766957-DEF1-4669-AF86-3558A5CC3474}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>slug</t>
   </si>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>contact</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>VInal Flooring Proposal</t>
+  </si>
+  <si>
+    <t>Vinal-Flooring-Proposal</t>
+  </si>
+  <si>
+    <t>Professional on-site measurement and evaluation of your flooring space;Product options tailored to design preferences, durability needs, and budget;Clear installation plan, timeline, and transparent cost estimate</t>
+  </si>
+  <si>
+    <t>If you don’t see a service that matches your needs, select this option and our team will review your request to let you know how we can help</t>
+  </si>
+  <si>
+    <t>Cramer-Logo.png</t>
+  </si>
+  <si>
+    <t>Flooring.jpeg</t>
   </si>
 </sst>
 </file>
@@ -182,11 +206,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,178 +550,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="7" width="56.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="292.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
         <v>150</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>800</v>
+      </c>
+      <c r="D4" s="2">
+        <v>999</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>800</v>
-      </c>
-      <c r="D4">
-        <v>999</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>1200</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="2"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D766957-DEF1-4669-AF86-3558A5CC3474}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0567B4E-D7D3-4D5A-A9A9-8CFC0C9B3A23}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>slug</t>
   </si>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,8 +682,8 @@
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2">
-        <v>100</v>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -734,7 +734,9 @@
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
@@ -758,8 +760,8 @@
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2">
-        <v>100</v>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>38</v>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0567B4E-D7D3-4D5A-A9A9-8CFC0C9B3A23}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72EFC275-BF13-48BC-88E9-B1D5EB813B18}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>slug</t>
   </si>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,9 +682,7 @@
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
@@ -734,9 +732,7 @@
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
@@ -760,9 +756,7 @@
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>38</v>
       </c>

--- a/Services.xlsx
+++ b/Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ce8c4294ab9a41e/Desktop/Cramer Services html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72EFC275-BF13-48BC-88E9-B1D5EB813B18}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{88C0F26A-CD20-4CD1-B45D-F2DD193A6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A4B5E6-A099-4FCD-AE39-EE6EB680ED5E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{23803704-7499-4AE1-8879-84F357FDE795}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>slug</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>fiber-sedan</t>
-  </si>
-  <si>
-    <t>Fiber Optic Lights Sedan</t>
   </si>
   <si>
     <t>HVAC Repair</t>
@@ -163,6 +160,12 @@
   </si>
   <si>
     <t>Flooring.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Optic Lights Sedan Proposal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Optic Lights SUV Proposal </t>
   </si>
 </sst>
 </file>
@@ -552,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1357D1-FF94-4D48-8DFF-B0D3FC445256}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -588,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -599,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>75</v>
@@ -608,16 +611,16 @@
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
@@ -625,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
@@ -634,16 +637,16 @@
         <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -651,123 +654,119 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>800</v>
-      </c>
-      <c r="D4" s="2">
-        <v>999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
